--- a/po_analysis_by_asin/B0CMK1W2YX_po_data.xlsx
+++ b/po_analysis_by_asin/B0CMK1W2YX_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,273 +452,305 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>774</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45306</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>126</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45327</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45334</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>54</v>
+        <v>774</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45341</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>90</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45348</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>378</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45355</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>252</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45362</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>24</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45369</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>48</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45376</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>156</v>
+        <v>378</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45383</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>264</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45390</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>516</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45397</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>156</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45404</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>264</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45411</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>312</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45418</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>144</v>
+        <v>516</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45425</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>84</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45432</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>396</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45439</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>96</v>
+        <v>312</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45453</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>1560</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45460</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>168</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45495</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>324</v>
+        <v>396</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45502</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>396</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45516</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>36</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45523</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>1092</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45530</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>108</v>
+        <v>324</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45551</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>216</v>
+        <v>396</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45558</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>468</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45565</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>132</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45579</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>1116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45586</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>1260</v>
+        <v>216</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45593</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>36</v>
+        <v>468</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45628</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B35" t="n">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B39" t="n">
         <v>24</v>
       </c>
     </row>
@@ -733,7 +765,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -755,89 +787,105 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>918</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45291.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>540</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45322.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>480</v>
+        <v>918</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45351.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>1200</v>
+        <v>540</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>1032</v>
+        <v>480</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45444</v>
+        <v>45412.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>1728</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45474</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>324</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45505</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>1632</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45536</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>684</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45566</v>
+        <v>45535.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>2544</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45627</v>
+        <v>45565.99999999999</v>
       </c>
       <c r="B12" t="n">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45657.99999999999</v>
+      </c>
+      <c r="B14" t="n">
         <v>24</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0CMK1W2YX_po_data.xlsx
+++ b/po_analysis_by_asin/B0CMK1W2YX_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -781,7 +782,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -887,6 +888,691 @@
       </c>
       <c r="B14" t="n">
         <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>88</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-385.4547155052442</v>
+      </c>
+      <c r="D2" t="n">
+        <v>538.3771526228135</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>96</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-366.8250108032742</v>
+      </c>
+      <c r="D3" t="n">
+        <v>539.7298198549739</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>113</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-324.8549650505007</v>
+      </c>
+      <c r="D4" t="n">
+        <v>577.0237412591141</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>121</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-325.366503877273</v>
+      </c>
+      <c r="D5" t="n">
+        <v>599.8453559856623</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>146</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-330.8476916209426</v>
+      </c>
+      <c r="D6" t="n">
+        <v>565.6566704246741</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>154</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-326.7026989422174</v>
+      </c>
+      <c r="D7" t="n">
+        <v>617.3685295017681</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>163</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-287.0454425700267</v>
+      </c>
+      <c r="D8" t="n">
+        <v>643.0181054344242</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>187</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-294.5379035275467</v>
+      </c>
+      <c r="D9" t="n">
+        <v>659.6882839222692</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>196</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-198.4725780143651</v>
+      </c>
+      <c r="D10" t="n">
+        <v>656.1041268892556</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>204</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-237.1972156653797</v>
+      </c>
+      <c r="D11" t="n">
+        <v>652.0913919809955</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>212</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-236.5178462160723</v>
+      </c>
+      <c r="D12" t="n">
+        <v>640.9089323903196</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>221</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-213.7392627232441</v>
+      </c>
+      <c r="D13" t="n">
+        <v>691.9609590559801</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>229</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-223.2914812039173</v>
+      </c>
+      <c r="D14" t="n">
+        <v>670.398054005359</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>237</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-202.998286652822</v>
+      </c>
+      <c r="D15" t="n">
+        <v>673.4364332354985</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>245</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-186.9303475205317</v>
+      </c>
+      <c r="D16" t="n">
+        <v>667.7855128720286</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>254</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-204.7888981387522</v>
+      </c>
+      <c r="D17" t="n">
+        <v>687.9365285884893</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>262</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-195.1250770859572</v>
+      </c>
+      <c r="D18" t="n">
+        <v>723.0310652781119</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>270</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-159.999769095825</v>
+      </c>
+      <c r="D19" t="n">
+        <v>716.8140482126106</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>278</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-165.8395766924404</v>
+      </c>
+      <c r="D20" t="n">
+        <v>759.5821562696113</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>287</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-155.8512011836277</v>
+      </c>
+      <c r="D21" t="n">
+        <v>736.4542307560412</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>295</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-129.1678202031489</v>
+      </c>
+      <c r="D22" t="n">
+        <v>740.6492346510637</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>303</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-126.477882475191</v>
+      </c>
+      <c r="D23" t="n">
+        <v>763.1816964991193</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>312</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-141.2176619128113</v>
+      </c>
+      <c r="D24" t="n">
+        <v>756.3433640309426</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>320</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-106.6519336404692</v>
+      </c>
+      <c r="D25" t="n">
+        <v>740.7954719339033</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>336</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-112.2302480747607</v>
+      </c>
+      <c r="D26" t="n">
+        <v>799.8315464138835</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>345</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-85.74848684713096</v>
+      </c>
+      <c r="D27" t="n">
+        <v>790.9864389813526</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>386</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-49.95410730917225</v>
+      </c>
+      <c r="D28" t="n">
+        <v>827.2912886755003</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>394</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-60.56578340588877</v>
+      </c>
+      <c r="D29" t="n">
+        <v>865.7971421163967</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>411</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-35.8592628626143</v>
+      </c>
+      <c r="D30" t="n">
+        <v>868.4976468980345</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>419</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-24.29949755260103</v>
+      </c>
+      <c r="D31" t="n">
+        <v>872.9783881141992</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>427</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-4.439536467235937</v>
+      </c>
+      <c r="D32" t="n">
+        <v>893.8420595841549</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>452</v>
+      </c>
+      <c r="C33" t="n">
+        <v>5.411920235362064</v>
+      </c>
+      <c r="D33" t="n">
+        <v>881.2878728594495</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>460</v>
+      </c>
+      <c r="C34" t="n">
+        <v>65.03139184363721</v>
+      </c>
+      <c r="D34" t="n">
+        <v>915.976429847581</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>469</v>
+      </c>
+      <c r="C35" t="n">
+        <v>49.62899230102321</v>
+      </c>
+      <c r="D35" t="n">
+        <v>933.7081042650565</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>485</v>
+      </c>
+      <c r="C36" t="n">
+        <v>60.73901508674183</v>
+      </c>
+      <c r="D36" t="n">
+        <v>932.3056490221559</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>494</v>
+      </c>
+      <c r="C37" t="n">
+        <v>3.357342208369716</v>
+      </c>
+      <c r="D37" t="n">
+        <v>942.711384465164</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>502</v>
+      </c>
+      <c r="C38" t="n">
+        <v>43.28532193553028</v>
+      </c>
+      <c r="D38" t="n">
+        <v>951.8622755408463</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>543</v>
+      </c>
+      <c r="C39" t="n">
+        <v>114.8790390479707</v>
+      </c>
+      <c r="D39" t="n">
+        <v>986.2339318732783</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>551</v>
+      </c>
+      <c r="C40" t="n">
+        <v>80.94047841274839</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1003.991901084071</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>560</v>
+      </c>
+      <c r="C41" t="n">
+        <v>101.7540595730169</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1010.339614104617</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>568</v>
+      </c>
+      <c r="C42" t="n">
+        <v>116.7185664001528</v>
+      </c>
+      <c r="D42" t="n">
+        <v>979.1672762079662</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>576</v>
+      </c>
+      <c r="C43" t="n">
+        <v>129.8925518705168</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1029.256151334001</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>585</v>
+      </c>
+      <c r="C44" t="n">
+        <v>144.39213573801</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1046.119175033638</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>593</v>
+      </c>
+      <c r="C45" t="n">
+        <v>175.2119951584875</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1083.051156123353</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45683.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>601</v>
+      </c>
+      <c r="C46" t="n">
+        <v>144.9451847052089</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1017.667476516419</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45690.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>609</v>
+      </c>
+      <c r="C47" t="n">
+        <v>150.3933172935496</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1063.82261730513</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0CMK1W2YX_po_data.xlsx
+++ b/po_analysis_by_asin/B0CMK1W2YX_po_data.xlsx
@@ -901,7 +901,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -920,16 +920,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -938,12 +928,6 @@
       <c r="B2" t="n">
         <v>88</v>
       </c>
-      <c r="C2" t="n">
-        <v>-385.4547155052442</v>
-      </c>
-      <c r="D2" t="n">
-        <v>538.3771526228135</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -952,12 +936,6 @@
       <c r="B3" t="n">
         <v>96</v>
       </c>
-      <c r="C3" t="n">
-        <v>-366.8250108032742</v>
-      </c>
-      <c r="D3" t="n">
-        <v>539.7298198549739</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -966,12 +944,6 @@
       <c r="B4" t="n">
         <v>113</v>
       </c>
-      <c r="C4" t="n">
-        <v>-324.8549650505007</v>
-      </c>
-      <c r="D4" t="n">
-        <v>577.0237412591141</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -980,12 +952,6 @@
       <c r="B5" t="n">
         <v>121</v>
       </c>
-      <c r="C5" t="n">
-        <v>-325.366503877273</v>
-      </c>
-      <c r="D5" t="n">
-        <v>599.8453559856623</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -994,12 +960,6 @@
       <c r="B6" t="n">
         <v>146</v>
       </c>
-      <c r="C6" t="n">
-        <v>-330.8476916209426</v>
-      </c>
-      <c r="D6" t="n">
-        <v>565.6566704246741</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1008,12 +968,6 @@
       <c r="B7" t="n">
         <v>154</v>
       </c>
-      <c r="C7" t="n">
-        <v>-326.7026989422174</v>
-      </c>
-      <c r="D7" t="n">
-        <v>617.3685295017681</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1022,12 +976,6 @@
       <c r="B8" t="n">
         <v>163</v>
       </c>
-      <c r="C8" t="n">
-        <v>-287.0454425700267</v>
-      </c>
-      <c r="D8" t="n">
-        <v>643.0181054344242</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1036,12 +984,6 @@
       <c r="B9" t="n">
         <v>187</v>
       </c>
-      <c r="C9" t="n">
-        <v>-294.5379035275467</v>
-      </c>
-      <c r="D9" t="n">
-        <v>659.6882839222692</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1050,12 +992,6 @@
       <c r="B10" t="n">
         <v>196</v>
       </c>
-      <c r="C10" t="n">
-        <v>-198.4725780143651</v>
-      </c>
-      <c r="D10" t="n">
-        <v>656.1041268892556</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1064,12 +1000,6 @@
       <c r="B11" t="n">
         <v>204</v>
       </c>
-      <c r="C11" t="n">
-        <v>-237.1972156653797</v>
-      </c>
-      <c r="D11" t="n">
-        <v>652.0913919809955</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1078,12 +1008,6 @@
       <c r="B12" t="n">
         <v>212</v>
       </c>
-      <c r="C12" t="n">
-        <v>-236.5178462160723</v>
-      </c>
-      <c r="D12" t="n">
-        <v>640.9089323903196</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1092,12 +1016,6 @@
       <c r="B13" t="n">
         <v>221</v>
       </c>
-      <c r="C13" t="n">
-        <v>-213.7392627232441</v>
-      </c>
-      <c r="D13" t="n">
-        <v>691.9609590559801</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1106,12 +1024,6 @@
       <c r="B14" t="n">
         <v>229</v>
       </c>
-      <c r="C14" t="n">
-        <v>-223.2914812039173</v>
-      </c>
-      <c r="D14" t="n">
-        <v>670.398054005359</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1120,12 +1032,6 @@
       <c r="B15" t="n">
         <v>237</v>
       </c>
-      <c r="C15" t="n">
-        <v>-202.998286652822</v>
-      </c>
-      <c r="D15" t="n">
-        <v>673.4364332354985</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1134,12 +1040,6 @@
       <c r="B16" t="n">
         <v>245</v>
       </c>
-      <c r="C16" t="n">
-        <v>-186.9303475205317</v>
-      </c>
-      <c r="D16" t="n">
-        <v>667.7855128720286</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1148,12 +1048,6 @@
       <c r="B17" t="n">
         <v>254</v>
       </c>
-      <c r="C17" t="n">
-        <v>-204.7888981387522</v>
-      </c>
-      <c r="D17" t="n">
-        <v>687.9365285884893</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1162,12 +1056,6 @@
       <c r="B18" t="n">
         <v>262</v>
       </c>
-      <c r="C18" t="n">
-        <v>-195.1250770859572</v>
-      </c>
-      <c r="D18" t="n">
-        <v>723.0310652781119</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1176,12 +1064,6 @@
       <c r="B19" t="n">
         <v>270</v>
       </c>
-      <c r="C19" t="n">
-        <v>-159.999769095825</v>
-      </c>
-      <c r="D19" t="n">
-        <v>716.8140482126106</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1190,12 +1072,6 @@
       <c r="B20" t="n">
         <v>278</v>
       </c>
-      <c r="C20" t="n">
-        <v>-165.8395766924404</v>
-      </c>
-      <c r="D20" t="n">
-        <v>759.5821562696113</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1204,12 +1080,6 @@
       <c r="B21" t="n">
         <v>287</v>
       </c>
-      <c r="C21" t="n">
-        <v>-155.8512011836277</v>
-      </c>
-      <c r="D21" t="n">
-        <v>736.4542307560412</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1218,12 +1088,6 @@
       <c r="B22" t="n">
         <v>295</v>
       </c>
-      <c r="C22" t="n">
-        <v>-129.1678202031489</v>
-      </c>
-      <c r="D22" t="n">
-        <v>740.6492346510637</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1232,12 +1096,6 @@
       <c r="B23" t="n">
         <v>303</v>
       </c>
-      <c r="C23" t="n">
-        <v>-126.477882475191</v>
-      </c>
-      <c r="D23" t="n">
-        <v>763.1816964991193</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1246,12 +1104,6 @@
       <c r="B24" t="n">
         <v>312</v>
       </c>
-      <c r="C24" t="n">
-        <v>-141.2176619128113</v>
-      </c>
-      <c r="D24" t="n">
-        <v>756.3433640309426</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1260,12 +1112,6 @@
       <c r="B25" t="n">
         <v>320</v>
       </c>
-      <c r="C25" t="n">
-        <v>-106.6519336404692</v>
-      </c>
-      <c r="D25" t="n">
-        <v>740.7954719339033</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1274,12 +1120,6 @@
       <c r="B26" t="n">
         <v>336</v>
       </c>
-      <c r="C26" t="n">
-        <v>-112.2302480747607</v>
-      </c>
-      <c r="D26" t="n">
-        <v>799.8315464138835</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1288,12 +1128,6 @@
       <c r="B27" t="n">
         <v>345</v>
       </c>
-      <c r="C27" t="n">
-        <v>-85.74848684713096</v>
-      </c>
-      <c r="D27" t="n">
-        <v>790.9864389813526</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1302,12 +1136,6 @@
       <c r="B28" t="n">
         <v>386</v>
       </c>
-      <c r="C28" t="n">
-        <v>-49.95410730917225</v>
-      </c>
-      <c r="D28" t="n">
-        <v>827.2912886755003</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1316,12 +1144,6 @@
       <c r="B29" t="n">
         <v>394</v>
       </c>
-      <c r="C29" t="n">
-        <v>-60.56578340588877</v>
-      </c>
-      <c r="D29" t="n">
-        <v>865.7971421163967</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1330,12 +1152,6 @@
       <c r="B30" t="n">
         <v>411</v>
       </c>
-      <c r="C30" t="n">
-        <v>-35.8592628626143</v>
-      </c>
-      <c r="D30" t="n">
-        <v>868.4976468980345</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1344,12 +1160,6 @@
       <c r="B31" t="n">
         <v>419</v>
       </c>
-      <c r="C31" t="n">
-        <v>-24.29949755260103</v>
-      </c>
-      <c r="D31" t="n">
-        <v>872.9783881141992</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1358,12 +1168,6 @@
       <c r="B32" t="n">
         <v>427</v>
       </c>
-      <c r="C32" t="n">
-        <v>-4.439536467235937</v>
-      </c>
-      <c r="D32" t="n">
-        <v>893.8420595841549</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1372,12 +1176,6 @@
       <c r="B33" t="n">
         <v>452</v>
       </c>
-      <c r="C33" t="n">
-        <v>5.411920235362064</v>
-      </c>
-      <c r="D33" t="n">
-        <v>881.2878728594495</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1386,12 +1184,6 @@
       <c r="B34" t="n">
         <v>460</v>
       </c>
-      <c r="C34" t="n">
-        <v>65.03139184363721</v>
-      </c>
-      <c r="D34" t="n">
-        <v>915.976429847581</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1400,12 +1192,6 @@
       <c r="B35" t="n">
         <v>469</v>
       </c>
-      <c r="C35" t="n">
-        <v>49.62899230102321</v>
-      </c>
-      <c r="D35" t="n">
-        <v>933.7081042650565</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1414,12 +1200,6 @@
       <c r="B36" t="n">
         <v>485</v>
       </c>
-      <c r="C36" t="n">
-        <v>60.73901508674183</v>
-      </c>
-      <c r="D36" t="n">
-        <v>932.3056490221559</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1428,12 +1208,6 @@
       <c r="B37" t="n">
         <v>494</v>
       </c>
-      <c r="C37" t="n">
-        <v>3.357342208369716</v>
-      </c>
-      <c r="D37" t="n">
-        <v>942.711384465164</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1442,12 +1216,6 @@
       <c r="B38" t="n">
         <v>502</v>
       </c>
-      <c r="C38" t="n">
-        <v>43.28532193553028</v>
-      </c>
-      <c r="D38" t="n">
-        <v>951.8622755408463</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1456,12 +1224,6 @@
       <c r="B39" t="n">
         <v>543</v>
       </c>
-      <c r="C39" t="n">
-        <v>114.8790390479707</v>
-      </c>
-      <c r="D39" t="n">
-        <v>986.2339318732783</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1470,12 +1232,6 @@
       <c r="B40" t="n">
         <v>551</v>
       </c>
-      <c r="C40" t="n">
-        <v>80.94047841274839</v>
-      </c>
-      <c r="D40" t="n">
-        <v>1003.991901084071</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1484,12 +1240,6 @@
       <c r="B41" t="n">
         <v>560</v>
       </c>
-      <c r="C41" t="n">
-        <v>101.7540595730169</v>
-      </c>
-      <c r="D41" t="n">
-        <v>1010.339614104617</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1498,12 +1248,6 @@
       <c r="B42" t="n">
         <v>568</v>
       </c>
-      <c r="C42" t="n">
-        <v>116.7185664001528</v>
-      </c>
-      <c r="D42" t="n">
-        <v>979.1672762079662</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1512,12 +1256,6 @@
       <c r="B43" t="n">
         <v>576</v>
       </c>
-      <c r="C43" t="n">
-        <v>129.8925518705168</v>
-      </c>
-      <c r="D43" t="n">
-        <v>1029.256151334001</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1526,12 +1264,6 @@
       <c r="B44" t="n">
         <v>585</v>
       </c>
-      <c r="C44" t="n">
-        <v>144.39213573801</v>
-      </c>
-      <c r="D44" t="n">
-        <v>1046.119175033638</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1540,12 +1272,6 @@
       <c r="B45" t="n">
         <v>593</v>
       </c>
-      <c r="C45" t="n">
-        <v>175.2119951584875</v>
-      </c>
-      <c r="D45" t="n">
-        <v>1083.051156123353</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1554,12 +1280,6 @@
       <c r="B46" t="n">
         <v>601</v>
       </c>
-      <c r="C46" t="n">
-        <v>144.9451847052089</v>
-      </c>
-      <c r="D46" t="n">
-        <v>1017.667476516419</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1567,12 +1287,6 @@
       </c>
       <c r="B47" t="n">
         <v>609</v>
-      </c>
-      <c r="C47" t="n">
-        <v>150.3933172935496</v>
-      </c>
-      <c r="D47" t="n">
-        <v>1063.82261730513</v>
       </c>
     </row>
   </sheetData>
